--- a/biology/Botanique/Phytolaccaceae/Phytolaccaceae.xlsx
+++ b/biology/Botanique/Phytolaccaceae/Phytolaccaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Phytolaccaceae (Phytolaccacées) sont une famille de plantes dicotylédones ; elle comprend une centaine d'espèces réparties en 8 à 14 genres. 
 Ce sont essentiellement des plantes herbacées ou des arbustes, des arbres, des lianes, annuels ou pérennes, principalement des régions subtropicales à tropicales.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Phytolacca composé du grec φυτών / fyton, plante, et λάκκα / lakka, laque, sécrétions résineuses écarlates de plusieurs espèces d'insectes, autrefois utilisées comme colorant rouge. Les baies de Phytolacca peuvent aussi être utilisées pour produire un colorant rouge.  Phytolacca signifie donc littéralement « laque végétale »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Phytolacca composé du grec φυτών / fyton, plante, et λάκκα / lakka, laque, sécrétions résineuses écarlates de plusieurs espèces d'insectes, autrefois utilisées comme colorant rouge. Les baies de Phytolacca peuvent aussi être utilisées pour produire un colorant rouge.  Phytolacca signifie donc littéralement « laque végétale ».
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique en sépare les familles des Achatocarpaceae et des Stegnospermataceae, en revanche le genre Agdestis précédemment classé dans les Agdesticaceae y a été incorporé.
-La classification phylogénétique APG IV (2016)[2] sépare la famille des Petiveriaceae.
-La famille des Microteaceae a été circonscrite en 2009[3].
+La classification phylogénétique APG IV (2016) sépare la famille des Petiveriaceae.
+La famille des Microteaceae a été circonscrite en 2009.
 </t>
         </is>
       </c>
@@ -576,14 +592,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (2 fév.2017)[4]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (2 fév.2017)
 genre Agdestis
 genre Anisomeria
 genre Ercilla
 genre Phytolacca
-Selon NCBI  (2 fév. 2017)[5] :
+Selon NCBI  (2 fév. 2017) :
 genre Anisomeria
 genre Ercilla
 genre Gallesia
@@ -594,13 +612,13 @@
 genre Schindleria
 genre Seguieria
 genre Trichostigma
-Selon ITIS      (2 fév. 2017)[6] :
+Selon ITIS      (2 fév. 2017) :
 genre Agdestis  Moc. &amp; Sessé ex DC.
 genre Petiveria  L.
 genre Phytolacca  L.
 genre Rivina  L.
 genre Trichostigma  A. Rich.
-Selon DELTA Angio           (4 mai 2010)[7] :
+Selon DELTA Angio           (4 mai 2010) :
 genre Anisomeria
 genre Ercilla
 genre Gallesia
@@ -642,9 +660,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (4 mai 2010)[8] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (4 mai 2010) :
 genre Ercilla
 Ercilla volubilis
 genre Gallesia
